--- a/excel/04_分类汇总和数据验证.xlsx
+++ b/excel/04_分类汇总和数据验证.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE92DEF-267A-4D80-8D23-8BAB9CF674A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D326CF6A-97D6-4E59-98A0-DE7C5D4EA45C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分类汇总" sheetId="22" r:id="rId1"/>
@@ -6751,17 +6751,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6783,12 +6777,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6796,6 +6790,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7236,8 +7236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7251,7 +7251,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -7263,10 +7263,10 @@
       <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="15" t="s">
@@ -7307,12 +7307,12 @@
       <c r="I2" s="11">
         <v>4587.581110635916</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="23" t="s">
         <v>2081</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -7342,15 +7342,15 @@
       <c r="I3" s="11">
         <v>53909.049392568151</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="17">
@@ -7380,13 +7380,13 @@
       <c r="I4" s="11">
         <v>23743.740445755666</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="30" t="s">
         <v>2082</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
@@ -7416,18 +7416,18 @@
       <c r="I5" s="11">
         <v>188581.39693456056</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -7469,8 +7469,8 @@
       <c r="R6" s="31"/>
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -7510,8 +7510,8 @@
       <c r="R7" s="31"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="27"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -7612,15 +7612,15 @@
       <c r="K10" s="31" t="s">
         <v>2084</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -7650,16 +7650,16 @@
       <c r="I11" s="11">
         <v>10500.957265793933</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
@@ -7718,13 +7718,13 @@
       <c r="I13" s="11">
         <v>427.95635538516478</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="26" t="s">
         <v>2085</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
@@ -36459,14 +36459,14 @@
       <c r="E2" s="11">
         <v>20256.694699447638</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>2086</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -36502,22 +36502,22 @@
       <c r="E4" s="11">
         <v>29398.00409440554</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="33" t="s">
         <v>2087</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -36535,20 +36535,20 @@
       <c r="E5" s="11">
         <v>35420.34128341321</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -36566,20 +36566,20 @@
       <c r="E6" s="11">
         <v>1284.2992252379611</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -37182,11 +37182,11 @@
     </row>
     <row r="2" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="32" t="s">
         <v>2093</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -37194,63 +37194,63 @@
         <v>2092</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>2089</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="32" t="s">
         <v>2090</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="8" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -37279,7 +37279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -38050,15 +38050,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="2:19" ht="32.4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -38116,7 +38116,7 @@
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
-      <c r="S4" s="27"/>
+      <c r="S4" s="25"/>
     </row>
     <row r="5" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
@@ -38149,7 +38149,7 @@
       <c r="P5" s="31"/>
       <c r="Q5" s="31"/>
       <c r="R5" s="31"/>
-      <c r="S5" s="27"/>
+      <c r="S5" s="25"/>
     </row>
     <row r="6" spans="2:19" ht="12" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
